--- a/ER/club_lectura_ER/club_de_lectura_logico.xlsx
+++ b/ER/club_lectura_ER/club_de_lectura_logico.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelson\Desktop\aa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aayal\OneDrive\Documentos\GitHub\Los.Clubes.De.Lectura\ER\club_lectura_ER\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_C2826403CE3BC7C6A525B56010D25A7A9BDAC308" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CC8EEC07-3C21-42DA-A77B-7F21DB2B566D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="167">
   <si>
     <t>LIBRO</t>
   </si>
@@ -374,9 +375,6 @@
     <t>fun_fecha</t>
   </si>
   <si>
-    <t>hora</t>
-  </si>
-  <si>
     <t>estatus_realizado</t>
   </si>
   <si>
@@ -515,19 +513,25 @@
     <t>grup_tipo=Adulto,Joven,Niño</t>
   </si>
   <si>
-    <t>obra_status y estatus_mie= Inactivo,Activo</t>
-  </si>
-  <si>
     <t>dir_tipo=Pais,Ciudad</t>
   </si>
   <si>
     <t>rep_genero y miemb_genero=Femenino,Masculino,Neutro</t>
+  </si>
+  <si>
+    <t>check('R','A')</t>
+  </si>
+  <si>
+    <t>obra_status y estatus_mie= Retirado,Activo</t>
+  </si>
+  <si>
+    <t>func_hora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -747,11 +751,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -766,24 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -815,9 +816,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,31 +1124,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R85" sqref="R85"/>
+    <sheetView tabSelected="1" topLeftCell="F32" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="57"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1262,28 +1289,32 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="K8" s="17" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="K8" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="N8" s="17" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="O8" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="19"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="46"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1310,22 +1341,28 @@
       <c r="K9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="26"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1351,17 +1388,23 @@
       <c r="L10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -1379,15 +1422,19 @@
         <v>12</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="N11" s="5" t="s">
+      <c r="M11" s="5"/>
+      <c r="O11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="5"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
       <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="5"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -1399,19 +1446,21 @@
       <c r="I12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="R12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1435,69 +1484,84 @@
       <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5" t="s">
+      <c r="K13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="N14" s="6" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="O14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="P14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="6" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="F16" s="17" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="F16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="M16" s="26" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="M16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27" t="s">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="28"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1512,7 +1576,7 @@
       <c r="D17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="17" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1528,33 +1592,33 @@
       <c r="K17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="P17" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="30" t="s">
+      <c r="Q17" s="25"/>
+      <c r="R17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="T17" s="25" t="s">
+      <c r="S17" s="25"/>
+      <c r="T17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="35" t="s">
+      <c r="U17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="V17" s="35" t="s">
+      <c r="V17" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="W17" s="34" t="s">
+      <c r="W17" s="28" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1569,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="15" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1586,16 +1650,16 @@
       <c r="M18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="8"/>
       <c r="T18" s="5" t="s">
         <v>11</v>
       </c>
@@ -1618,7 +1682,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="15" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -1631,14 +1695,18 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -1651,7 +1719,7 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1662,16 +1730,16 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="R20" s="7"/>
+      <c r="S20" s="8"/>
       <c r="T20" s="5" t="s">
         <v>15</v>
       </c>
@@ -1698,7 +1766,7 @@
       <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="16" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -1717,20 +1785,20 @@
       <c r="M21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="9" t="s">
+      <c r="Q21" s="10"/>
+      <c r="R21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="S21" s="10"/>
       <c r="T21" s="6" t="s">
         <v>16</v>
       </c>
@@ -1746,30 +1814,30 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="17" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="19"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="46"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1807,10 +1875,10 @@
       <c r="O24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="49" t="s">
+      <c r="P24" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="50"/>
+      <c r="Q24" s="54"/>
       <c r="R24" s="4" t="s">
         <v>72</v>
       </c>
@@ -1853,10 +1921,10 @@
       <c r="O25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P25" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="41"/>
+      <c r="P25" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="52"/>
       <c r="R25" s="5" t="s">
         <v>11</v>
       </c>
@@ -1887,8 +1955,8 @@
       <c r="O26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="43"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="48"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -1913,10 +1981,10 @@
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
-      <c r="P27" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q27" s="43"/>
+      <c r="P27" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q27" s="48"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
@@ -1955,35 +2023,35 @@
       <c r="O28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="43"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="48"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="N29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="44" t="s">
+      <c r="P29" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q29" s="45"/>
+      <c r="Q29" s="50"/>
       <c r="R29" s="6" t="s">
         <v>19</v>
       </c>
@@ -1996,26 +2064,26 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="46"/>
+      <c r="D31" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="48"/>
-      <c r="J31" s="17" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="42"/>
+      <c r="J31" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="19"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="46"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -2036,7 +2104,7 @@
       <c r="G32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="32"/>
+      <c r="H32" s="26"/>
       <c r="J32" s="4" t="s">
         <v>53</v>
       </c>
@@ -2055,7 +2123,7 @@
       <c r="O32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" s="17" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2078,7 +2146,7 @@
       <c r="G33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="32"/>
+      <c r="H33" s="26"/>
       <c r="J33" s="5" t="s">
         <v>11</v>
       </c>
@@ -2112,7 +2180,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="32"/>
+      <c r="H34" s="26"/>
       <c r="J34" s="5" t="s">
         <v>43</v>
       </c>
@@ -2144,7 +2212,7 @@
       <c r="G35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H35" s="32"/>
+      <c r="H35" s="26"/>
       <c r="J35" s="5" t="s">
         <v>13</v>
       </c>
@@ -2182,7 +2250,7 @@
       <c r="G36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="32"/>
+      <c r="H36" s="26"/>
       <c r="J36" s="6" t="s">
         <v>22</v>
       </c>
@@ -2201,37 +2269,37 @@
       <c r="O36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="P36" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="I38" s="17" t="s">
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="46"/>
+      <c r="I38" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="Q38" s="17" t="s">
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="46"/>
+      <c r="Q38" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="R38" s="19"/>
-      <c r="T38" s="17" t="s">
+      <c r="R38" s="46"/>
+      <c r="T38" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="U38" s="19"/>
+      <c r="U38" s="46"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -2258,7 +2326,7 @@
       <c r="J39" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="18" t="s">
         <v>96</v>
       </c>
       <c r="L39" s="4" t="s">
@@ -2398,7 +2466,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="7"/>
@@ -2459,12 +2527,12 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
       <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
@@ -2484,36 +2552,36 @@
       <c r="O44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="48"/>
-      <c r="J46" s="17" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="42"/>
+      <c r="J46" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="Q46" s="17" t="s">
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
+      <c r="Q46" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="46"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
@@ -2533,11 +2601,11 @@
       <c r="G47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="32"/>
+      <c r="H47" s="26"/>
       <c r="J47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K47" s="24" t="s">
+      <c r="K47" s="18" t="s">
         <v>106</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -2576,7 +2644,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="32"/>
+      <c r="H48" s="26"/>
       <c r="J48" s="5" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2675,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="32"/>
+      <c r="H49" s="26"/>
       <c r="J49" s="5" t="s">
         <v>12</v>
       </c>
@@ -2634,10 +2702,10 @@
       <c r="G50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H50" s="32"/>
+      <c r="H50" s="26"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -2656,7 +2724,7 @@
         <v>22</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="9" t="s">
@@ -2669,7 +2737,7 @@
       <c r="G51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="32"/>
+      <c r="H51" s="26"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -2680,14 +2748,14 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
       <c r="J52" s="6" t="s">
         <v>20</v>
       </c>
@@ -2709,25 +2777,25 @@
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
-      <c r="L54" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="19"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="46"/>
+      <c r="L54" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="46"/>
     </row>
     <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
@@ -2737,33 +2805,33 @@
         <v>94</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="26"/>
       <c r="L55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -2782,9 +2850,9 @@
       <c r="E56" s="8"/>
       <c r="F56" s="7"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="26"/>
       <c r="L56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2811,9 +2879,9 @@
       <c r="E57" s="8"/>
       <c r="F57" s="7"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="26"/>
       <c r="L57" s="5" t="s">
         <v>43</v>
       </c>
@@ -2834,9 +2902,9 @@
       <c r="E58" s="8"/>
       <c r="F58" s="7"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="8"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="26"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
         <v>29</v>
@@ -2853,7 +2921,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>69</v>
@@ -2863,11 +2931,11 @@
         <v>56</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" s="10"/>
+      <c r="H59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="26"/>
       <c r="L59" s="6" t="s">
         <v>67</v>
       </c>
@@ -2884,27 +2952,27 @@
     </row>
     <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="46"/>
+      <c r="I61" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="I61" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="19"/>
-      <c r="Q61" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="R61" s="19"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="46"/>
+      <c r="Q61" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="R61" s="46"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
@@ -2917,13 +2985,10 @@
         <v>83</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>82</v>
@@ -2935,22 +3000,20 @@
         <v>83</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O62" s="23" t="s">
-        <v>126</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="N62" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O62" s="30"/>
       <c r="Q62" s="1" t="s">
         <v>84</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -2969,9 +3032,6 @@
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="I63" s="5" t="s">
         <v>11</v>
       </c>
@@ -2987,12 +3047,10 @@
       <c r="M63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O63" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="N63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63" s="30"/>
       <c r="Q63" s="7" t="s">
         <v>11</v>
       </c>
@@ -3016,9 +3074,6 @@
       <c r="E64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I64" s="5" t="s">
         <v>43</v>
       </c>
@@ -3034,12 +3089,10 @@
       <c r="M64" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O64" s="21" t="s">
-        <v>43</v>
-      </c>
+      <c r="N64" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="O64" s="30"/>
       <c r="Q64" s="7" t="s">
         <v>12</v>
       </c>
@@ -3061,9 +3114,6 @@
       <c r="E65" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="I65" s="5" t="s">
         <v>13</v>
       </c>
@@ -3074,17 +3124,15 @@
         <v>15</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N65" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="O65" s="21" t="s">
+      <c r="N65" s="15" t="s">
         <v>92</v>
       </c>
+      <c r="O65" s="30"/>
       <c r="Q65" s="9" t="s">
         <v>88</v>
       </c>
@@ -3103,12 +3151,9 @@
         <v>88</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I66" s="6" t="s">
@@ -3121,44 +3166,42 @@
         <v>88</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N66" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O66" s="22" t="s">
+      <c r="N66" s="16" t="s">
         <v>19</v>
       </c>
+      <c r="O66" s="30"/>
     </row>
     <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="19"/>
-      <c r="K68" s="17" t="s">
+      <c r="A68" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="46"/>
+      <c r="K68" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="L68" s="46"/>
+      <c r="N68" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="L68" s="19"/>
-      <c r="N68" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O68" s="18"/>
-      <c r="P68" s="19"/>
-      <c r="R68" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="S68" s="19"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="46"/>
+      <c r="R68" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="S68" s="46"/>
     </row>
     <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
@@ -3173,14 +3216,14 @@
       <c r="D69" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69" s="3"/>
@@ -3196,8 +3239,8 @@
       <c r="O69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P69" s="23" t="s">
-        <v>135</v>
+      <c r="P69" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="R69" s="4" t="s">
         <v>83</v>
@@ -3224,7 +3267,7 @@
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="32"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="8"/>
       <c r="K70" s="5" t="s">
         <v>11</v>
@@ -3238,7 +3281,7 @@
       <c r="O70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P70" s="21" t="s">
+      <c r="P70" s="15" t="s">
         <v>11</v>
       </c>
       <c r="R70" s="5" t="s">
@@ -3264,7 +3307,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="32"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="8"/>
       <c r="K71" s="5" t="s">
         <v>43</v>
@@ -3291,12 +3334,12 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="32"/>
+      <c r="E72" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="58"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="8"/>
       <c r="K72" s="5" t="s">
         <v>13</v>
@@ -3314,7 +3357,7 @@
       <c r="R72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S72" s="21" t="s">
+      <c r="S72" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3332,7 +3375,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="32"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="8"/>
       <c r="K73" s="6" t="s">
         <v>88</v>
@@ -3346,13 +3389,13 @@
       <c r="O73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P73" s="22" t="s">
+      <c r="P73" s="16" t="s">
         <v>56</v>
       </c>
       <c r="R73" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="S73" s="22" t="s">
+      <c r="S73" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3378,67 +3421,67 @@
       <c r="G74" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H74" s="33"/>
+      <c r="H74" s="27"/>
       <c r="I74" s="10"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="36"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="30"/>
     </row>
     <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="19"/>
-      <c r="K76" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="19"/>
+      <c r="A76" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="46"/>
+      <c r="K76" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="46"/>
     </row>
     <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="H77" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="I77" s="47"/>
+      <c r="I77" s="41"/>
       <c r="K77" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>83</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -3455,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="G78" s="5"/>
-      <c r="H78" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="41"/>
+      <c r="H78" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="52"/>
       <c r="K78" s="5" t="s">
         <v>11</v>
       </c>
@@ -3477,8 +3520,8 @@
       <c r="E79" s="8"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="43"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="48"/>
       <c r="K79" s="5" t="s">
         <v>43</v>
       </c>
@@ -3495,11 +3538,11 @@
       <c r="E80" s="8"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="I80" s="43"/>
-      <c r="J80" s="32"/>
+      <c r="H80" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I80" s="48"/>
+      <c r="J80" s="26"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" t="s">
@@ -3509,7 +3552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>88</v>
       </c>
@@ -3527,84 +3570,82 @@
       <c r="G81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H81" s="44" t="s">
+      <c r="H81" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="I81" s="45"/>
+      <c r="I81" s="50"/>
       <c r="K81" s="6" t="s">
         <v>22</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M81" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M81" s="27" t="s">
         <v>88</v>
       </c>
       <c r="N81" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K82" s="32"/>
-      <c r="L82" s="32"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="19"/>
-    </row>
-    <row r="84" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="46"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="3"/>
+      <c r="J84" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="38" t="s">
+      <c r="K84" s="33"/>
+      <c r="L84" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="L84" s="39"/>
-      <c r="M84" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N84" s="3"/>
-      <c r="O84" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P84" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M84" s="3"/>
+      <c r="N84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O84" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>11</v>
       </c>
@@ -3613,88 +3654,84 @@
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="12"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85" s="37"/>
-      <c r="M85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N85" s="8"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="5"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E85" s="26"/>
+      <c r="F85" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="35"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="31"/>
+      <c r="L85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M85" s="8"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="7"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="5"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E86" s="26"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L87" s="32"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="5"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E87" s="26"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" s="26"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="7"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="7" t="s">
+      <c r="E88" s="26"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P88" s="5" t="s">
+      <c r="O88" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
@@ -3705,63 +3742,75 @@
       <c r="D89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="9" t="s">
+      <c r="E89" s="27"/>
+      <c r="F89" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="9" t="s">
+      <c r="G89" s="39"/>
+      <c r="H89" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="10"/>
-      <c r="K89" s="9" t="s">
+      <c r="I89" s="10"/>
+      <c r="J89" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L89" s="33"/>
-      <c r="M89" s="9" t="s">
+      <c r="K89" s="27"/>
+      <c r="L89" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N89" s="10"/>
-      <c r="O89" s="9" t="s">
+      <c r="M89" s="10"/>
+      <c r="N89" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="P89" s="6" t="s">
+      <c r="O89" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A83:O83"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="I38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="L54:P54"/>
+    <mergeCell ref="I61:O61"/>
+    <mergeCell ref="Q61:R61"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="J31:P31"/>
@@ -3771,32 +3820,19 @@
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="N23:T23"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="A76:I76"/>
     <mergeCell ref="H80:I80"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="N68:P68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="L54:P54"/>
-    <mergeCell ref="I61:O61"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="I38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="F16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
